--- a/Assets/ExcelDatas/BonusStatData.xlsx
+++ b/Assets/ExcelDatas/BonusStatData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{52553018-1C19-4E99-9B56-0F8AE93788D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F46A7D72-72C0-4008-924D-16C1432F62C7}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{52553018-1C19-4E99-9B56-0F8AE93788D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CA87BB4-45C3-4AFE-BD9C-8FC00D132E33}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -121,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackDamage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,6 +166,10 @@
   </si>
   <si>
     <t>캐릭터의 크리티컬 데미지를 강화 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;BonusStatName&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,10 +367,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -820,13 +816,13 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.75" style="3"/>
@@ -851,13 +847,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.6">
@@ -865,13 +861,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.6">
@@ -879,13 +875,13 @@
         <v>12001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.6">
@@ -899,7 +895,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.6">
@@ -907,13 +903,13 @@
         <v>12011</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2">
         <v>100</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.6">
@@ -921,13 +917,13 @@
         <v>12016</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
         <v>100</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.6">
@@ -935,13 +931,13 @@
         <v>12021</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2">
         <v>50</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
